--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3983581.668590591</v>
+        <v>3981329.588879383</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>135.4371632022867</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403536</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>124.0560888498699</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.0182967731494</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>183.1642512458436</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>87.28121759428751</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.62664829320015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.24238685723913</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>38.87667447859932</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763683</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1754.744438482648</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1754.744438482648</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2531.483610522581</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2141.34427854677</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>537.2634481367795</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>603.0669976776956</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>603.0669976776956</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2232.598233480554</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.635716540142</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.370017933392</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>1119.581765335148</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>708.5958605455401</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>293.5234103905365</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520488</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544676</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,19 +4647,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>361.3151575124869</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>361.3151575124869</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1569.101759311881</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.139242371469</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.139242371469</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>814.3509897732251</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>403.3650849836176</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883009</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612894</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351815</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1955.701599376003</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168628</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,22 +5176,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5255,37 +5255,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5744,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,7 +5777,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438179</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6212,49 +6212,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6835,16 +6835,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.018803864458</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>63.36835372228754</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.493968250307481e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405259</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405246</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="H4" t="n">
         <v>16046.583971892</v>
@@ -26439,10 +26439,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26451,7 +26451,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988372</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988369</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="E6" t="n">
-        <v>364565.0240868517</v>
+        <v>364530.2861614161</v>
       </c>
       <c r="F6" t="n">
-        <v>689977.4858942068</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="G6" t="n">
-        <v>689977.4858942073</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="H6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.747968771</v>
       </c>
       <c r="I6" t="n">
-        <v>689977.4858942071</v>
+        <v>689942.7479687716</v>
       </c>
       <c r="J6" t="n">
-        <v>472446.2834969294</v>
+        <v>472411.5455714939</v>
       </c>
       <c r="K6" t="n">
-        <v>689977.4858942069</v>
+        <v>689942.7479687715</v>
       </c>
       <c r="L6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.7479687716</v>
       </c>
       <c r="M6" t="n">
-        <v>604922.4579586954</v>
+        <v>604887.7200332594</v>
       </c>
       <c r="N6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="O6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.7479687715</v>
       </c>
       <c r="P6" t="n">
-        <v>689977.4858942068</v>
+        <v>689942.7479687716</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>219.2458784183963</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319082</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>21.36495917306135</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>29.53065250301984</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>111.4435131414768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>261.9597511231255</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>270.8963500433908</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>193.467268531798</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>372.0450511748541</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>225.1538233277209</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.419172904415543e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.335483861668198e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.45905009637449e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>469.5567819573404</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,28 +32558,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622667</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,31 +33029,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353221</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402485</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
